--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
@@ -528,22 +528,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8423243333333333</v>
+        <v>0.09102500000000001</v>
       </c>
       <c r="H2">
-        <v>2.526973</v>
+        <v>0.273075</v>
       </c>
       <c r="I2">
-        <v>0.9815065412458547</v>
+        <v>0.8515285885346505</v>
       </c>
       <c r="J2">
-        <v>0.9815065412458546</v>
+        <v>0.8515285885346504</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,7 +552,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.08268033333333333</v>
+        <v>0.08268033333333334</v>
       </c>
       <c r="N2">
         <v>0.248041</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06964365665477777</v>
+        <v>0.007525977341666669</v>
       </c>
       <c r="R2">
-        <v>0.626792909893</v>
+        <v>0.06773379607500001</v>
       </c>
       <c r="S2">
-        <v>0.9815065412458547</v>
+        <v>0.8515285885346505</v>
       </c>
       <c r="T2">
-        <v>0.9815065412458546</v>
+        <v>0.8515285885346504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.047613</v>
       </c>
       <c r="I3">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="J3">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,7 +614,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08268033333333333</v>
+        <v>0.08268033333333334</v>
       </c>
       <c r="N3">
         <v>0.248041</v>
@@ -632,10 +632,10 @@
         <v>0.011809976133</v>
       </c>
       <c r="S3">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="T3">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
     </row>
   </sheetData>
